--- a/SupplementalData/SupplementaryTables.xlsx
+++ b/SupplementalData/SupplementaryTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashley/Desktop/Hostetler_Pierce_et_al_2026/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashley/Documents/GitHub/Hostetler_Pierce_et_al_2026/SupplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46550902-A998-1641-BE79-A90C3A0C304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D55A2-06CA-9D40-B989-57B1137BB0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="600" windowWidth="41580" windowHeight="28200" xr2:uid="{C485673C-E300-7342-A1A0-0D77D2409032}"/>
+    <workbookView xWindow="4460" yWindow="600" windowWidth="41580" windowHeight="28200" activeTab="15" xr2:uid="{C485673C-E300-7342-A1A0-0D77D2409032}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,6 @@
     <t>Root System Stiffness (N/m)</t>
   </si>
   <si>
-    <t>Percent Lodging Category</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>Root System Stiffness category</t>
   </si>
   <si>
-    <t>Root System Stiffness categorys</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -653,300 +647,6 @@
     <t>Inbred Genotype</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>List of 43 inbred genotypes used in this study. The subpopulation information for genotypes was identified in Flint-Garcia et al (2005) and Liu et al (2003). Genotypes with missing information are denoted with a (*).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and genotypic differences of the root system stiffness for each of the 43 inbred genotypes assessed in 2020. A one-way analysis of variance identified that inbred genotype had a significant impact of root system stiffness, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and genotypic differences of the root system stiffness for each of the 43 inbred genotypes assessed in 2021. A one-way analysis of variance identified that inbred genotype had a significant impact of root system stiffness, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and year differences for the root system stiffness. A two-way analysis of variance identified that year had a significant impact of root system stiffness, thus a post-hoc Tukey honest significant difference (HSD) test was used to test pairwise comparisons. Years that share a letter are not significantly different than one another.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and percent lodging category differences for root system stiffness in 2021. A one-way analysis of variance identified that the percent lodging category had a significant impact of root system stiffness, thus a post-hoc Tukey honest significant difference (HSD) test was used to test pairwise comparisons. Percent lodging categories that share a letter are not significantly different than one another.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and inbred genotype differences for each of the below-ground root architectural traits. A one-way analysis of variance identified that genotype had a significant impact on all the below-ground root architectural traits, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another. Below-ground root architectural traits included: median number of roots (count), maximum number of roots (count), number of root tips (count), width/depth, solidity, shallow angle frequency, medium angle frequency, steep angle frequency, total root length (cm), depth (cm), maximum width (cm), average diameter (cm), median diameter (cm), maximum diameter (cm), perimeter (cm), network area (cm2), convex area (cm2), lower root area (cm2), surface area (cm2), volume (cm3), and average root orientation (degrees).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and root system stiffness category (RSS) differences for each of the below-ground root architectural traits. A one-way analysis of variance identified that root system stiffness categories had a significant impact on some of the below-ground root architectural traits, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly differ from one another. Belowground root architectural traits included: median number of roots (count), maximum number of roots (count), number of root tips (count), width/depth, solidity, shallow angle frequency, medium angle frequency, steep angle frequency, total root length (cm), depth (cm), maximum width (cm), average diameter (cm), median diameter (cm), maximum diameter (cm), perimeter (cm), network area (cm2), convex area (cm2), lower root area (cm2), surface area (cm2), volume (cm3), and average root orientation (degrees).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S8. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and root system stiffness category differences for each of the above-ground architectural traits. A one-way analysis of variance identified that root system stiffness categories had a significant impact on some of the above-ground architectural traits, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly different than one another. Traits included: number of nodes, root angle, stalk width, single root width, spread width, and root height on stalk.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S9. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and inbred genotype differences for brace root emergence (dap). A two-way analysis of variance identified that inbred genotype, year, and their interaction had a significant impact on brace root emergence, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S10. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and root system stiffness category differences for brace root emergence data. An analysis of variance identified that root system stiffness categories had a significant impact on brace root emergence, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly different than one another.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S11. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Summary statistics for inbred genotype and node differences for brace root mechanical traits. A two-way analysis of variance identified an interaction effect of inbred genotype and node on each of the brace root mechanical traits, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Inbred genotypes and nodes that share a letter are not significantly different than one another. Traits include the structural stiffness (K), the minor radius axis parallel to the plane of displacement (a0), the major radius axis perpendicular to the plane of displacement (b0), the second moment of area (I), and the bending modulus (E). </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S12. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and root system stiffness (RSS) category differences for brace root mechanics data. A two-way analysis of variance showed that root system stiffness categories influenced brace root mechanics, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly different than one another within a model. Traits include the structural stiffness (K), the minor radius axis parallel to the plane of displacement (a0), the major radius axis perpendicular to the plane of displacement (b0), the second moment of area (I), and the bending modulus (E).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S13. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Summary statistics and node differences for brace root mechanics data. A two-way analysis of variance showed that brace root node influenced brace root mechanics, thus a post-hoc Tukey honest significant difference (HSD) test was used to test all pairwise comparisons. Nodes that share a letter are not significantly different than one another within a model. Traits include the structural stiffness (K), the minor radius axis parallel to the plane of displacement (a0), the major radius axis perpendicular to the plane of displacement (b0), the second moment of area (I), and the bending modulus (E).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Table S14. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Random forest classification model input data. Two random forest classification models were trained and tested. For the first model, genotypic averages for traits (below-ground architecture, above-ground architecture, and above-ground mechanics) that were significantly different between the high and low root system stiffness (RSS) categories were used as predictors. For the second model, individual plant replicate data was for below-ground architecture traits were used as predictors.</t>
-    </r>
-  </si>
-  <si>
     <t>Median Number of Roots (count)</t>
   </si>
   <si>
@@ -1001,6 +701,30 @@
     <t>Above-ground Mechanics</t>
   </si>
   <si>
+    <t>Root Lodging Susceptibility</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>List of 43 inbred genotypes used in this study. The subpopulation information for genotypes was identified in Flint-Garcia et al (2005) and Liu et al (2003). Genotypes with missing information are denoted with an asterisk.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1009,7 +733,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Table S16. </t>
+      <t xml:space="preserve">Table S2. </t>
     </r>
     <r>
       <rPr>
@@ -1018,17 +742,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Summary statistics and genotypic differences for the maize </t>
+      <t>Summary statistics and genotypic differences of the root system stiffness for each of the 43 inbred genotypes assessed in 2020. A one-way ANOVA identified that inbred genotype had a significant impact of root system stiffness, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another.</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>roothairless3</t>
+      <t xml:space="preserve">Table S3. </t>
     </r>
     <r>
       <rPr>
@@ -1037,17 +763,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
+      <t>Summary statistics and genotypic differences of the root system stiffness for each of the 43 inbred genotypes assessed in 2021. A one-way ANOVA identified that inbred genotype had a significant impact of root system stiffness, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another.</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>rth3</t>
+      <t xml:space="preserve">Table S4. </t>
     </r>
     <r>
       <rPr>
@@ -1056,7 +784,217 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>) mutant plant and its wild-type sibling. A one-way analysis of variance identified that genotype had a significant impact on maximum crown width, thus a post-hoc Tukey honest significant difference (HSD) test was used to test pairwise comparisons. Genotypes that share a letter are not significantly different than one another.</t>
+      <t>Summary statistics and year differences for the root system stiffness. A two-way ANOVA identified that year had a significant impact of root system stiffness, thus a post-hoc Tukey HSD test was used to test pairwise comparisons. Years that share a letter are not significantly different than one another.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and percent lodging category differences for root system stiffness in 2021. A one-way ANOVA identified that the percent lodging category had a significant impact of root system stiffness, thus a post-hoc Tukey HSD test was used to test pairwise comparisons. Percent lodging categories that share a letter are not significantly different than one another.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and inbred genotype differences for each of the below-ground root architectural traits. A one-way ANOVA identified that genotype had a significant impact on all the below-ground root architectural traits, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another. Below-ground root architectural traits included: median number of roots, maximum number of roots, number of root tips, width/depth, solidity, shallow angle frequency, medium angle frequency, steep angle frequency, total root length, depth, maximum width, average diameter, median diameter, maximum diameter, perimeter, network area, convex area, lower root area, surface area, volume, and average root orientation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and root system stiffness category differences for each of the below-ground root architectural traits. A one-way ANOVA identified that root system stiffness categories had a significant impact on some of the below-ground root architectural traits, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly differ from one another. Belowground root architectural traits included: median number of roots, maximum number of roots, number of root tips, width/depth, solidity, shallow angle frequency, medium angle frequency, steep angle frequency, total root length, depth, maximum width, average diameter, median diameter, maximum diameter, perimeter, network area, convex area, lower root area, surface area, volume, and average root orientation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S8. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and root system stiffness category differences for each of the above-ground architectural traits. A one-way ANOVA identified that root system stiffness categories had a significant impact on some of the above-ground architectural traits, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly different than one another. Traits included: number of nodes, root angle, stalk width, single root width, spread width, and root height on stalk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S9. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and inbred genotype differences for brace root emergence date. A two-way ANOVA identified that inbred genotype, year, and their interaction had a significant impact on brace root emergence, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Inbred genotypes that share a letter are not significantly different than one another.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S10. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and root system stiffness category differences for brace root emergence data. An ANOVA identified that root system stiffness categories had a significant impact on brace root emergence, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly different than one another.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S11. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics for inbred genotype and node differences for brace root mechanical traits. A two-way ANOVA identified an interaction effect of inbred genotype and node on each of the brace root mechanical traits, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Inbred genotypes and nodes that share a letter are not significantly different than one another. Traits include the structural stiffness (K), the minor radius axis parallel to the plane of displacement (a0), the major radius axis perpendicular to the plane of displacement (b0), the second moment of area (I), and the bending modulus (E).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S12. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and root system stiffness category differences for brace root mechanics data. A two-way ANOVA showed that root system stiffness categories influenced brace root mechanics, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Root system stiffness categories that share a letter are not significantly different than one another within a model. Traits include the structural stiffness (K), the minor radius axis parallel to the plane of displacement (a0), the major radius axis perpendicular to the plane of displacement (b0), the second moment of area (I), and the bending modulus (E).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S13. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Summary statistics and node differences for brace root mechanics data. A two-way ANOVA showed that brace root node influenced brace root mechanics, thus a post-hoc Tukey HSD test was used to test all pairwise comparisons. Nodes that share a letter are not significantly different than one another within a model. Traits include the structural stiffness (K), the minor radius axis parallel to the plane of displacement (a0), the major radius axis perpendicular to the plane of displacement (b0), the second moment of area (I), and the bending modulus (E).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Table S14. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Random forest classification model input data. Two random forest classification models were trained and tested. For the first model, genotypic averages for traits (below-ground architecture, above-ground architecture, and above-ground mechanics) that were significantly different between the high and low root system stiffness categories were used as predictors. For the second model, individual plant replicate data was for below-ground architecture traits were used as predictors.</t>
     </r>
   </si>
   <si>
@@ -1077,17 +1015,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Summary statistics and genotypic differences for the maize </t>
+      <t>Summary statistics and genotypic differences for the maize roothairless3 (rth3) mutant plant and its wild-type sibling. A one-way ANOVA identified that genotype had a significant impact on root system stiffness, thus a post-hoc Tukey HSD test was used to test pairwise comparisons. Genotypes that share a letter are not significantly different than one another.</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>roothairless3</t>
+      <t xml:space="preserve">Table S16. </t>
     </r>
     <r>
       <rPr>
@@ -1096,34 +1036,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
+      <t>Summary statistics and genotypic differences for the maize roothairless3 (rth3) mutant plant and its wild-type sibling. A one-way ANOVA identified that genotype had a significant impact on maximum crown width, thus a post-hoc Tukey HSD test was used to test pairwise comparisons. Genotypes that share a letter are not significantly different than one another.</t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>rth3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) mutant plant and its wild-type sibling. A one-way analysis of variance identified that genotype had a significant impact on root system stiffness (RSS), thus a post-hoc Tukey honest significant difference (HSD) test was used to test pairwise comparisons. Genotypes that share a letter are not significantly different than one another.</t>
-    </r>
+  </si>
+  <si>
+    <t>Root System Stiffness Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1167,13 +1091,6 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1303,6 +1220,9 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1324,9 +1244,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1663,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAC2854-24FA-4B46-BA53-05E0D8609C75}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,11 +1593,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="A1" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2148,7 +2065,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2165,32 +2082,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -2211,12 +2128,12 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8">
         <v>41.6979166666667</v>
@@ -2251,7 +2168,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8">
         <v>37.863247863247899</v>
@@ -2286,7 +2203,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10">
         <v>35.883720930232599</v>
@@ -2332,7 +2249,7 @@
   <dimension ref="A1:AQ230"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2367,81 +2284,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
     </row>
     <row r="2" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="18"/>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="18"/>
@@ -2455,16 +2372,16 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>2</v>
@@ -2485,17 +2402,17 @@
         <v>7</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>2</v>
@@ -2516,16 +2433,16 @@
         <v>7</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X3" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA3" s="17" t="s">
         <v>2</v>
@@ -2546,7 +2463,7 @@
         <v>7</v>
       </c>
       <c r="AG3" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
@@ -6637,44 +6554,44 @@
       </c>
     </row>
     <row r="48" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="36" t="s">
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="37"/>
-      <c r="AG48" s="37"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="40"/>
+      <c r="AF48" s="40"/>
+      <c r="AG48" s="40"/>
       <c r="AH48" s="18"/>
       <c r="AI48" s="18"/>
       <c r="AJ48" s="18"/>
@@ -6688,16 +6605,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>2</v>
@@ -6718,17 +6635,17 @@
         <v>7</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L49" s="18"/>
       <c r="M49" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N49" s="14" t="s">
         <v>0</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P49" s="14" t="s">
         <v>2</v>
@@ -6749,16 +6666,16 @@
         <v>7</v>
       </c>
       <c r="V49" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X49" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y49" s="17" t="s">
         <v>0</v>
       </c>
       <c r="Z49" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA49" s="17" t="s">
         <v>2</v>
@@ -6779,7 +6696,7 @@
         <v>7</v>
       </c>
       <c r="AG49" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
@@ -10870,44 +10787,44 @@
       </c>
     </row>
     <row r="94" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="36" t="s">
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="18"/>
-      <c r="X94" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y94" s="37"/>
-      <c r="Z94" s="37"/>
-      <c r="AA94" s="37"/>
-      <c r="AB94" s="37"/>
-      <c r="AC94" s="37"/>
-      <c r="AD94" s="37"/>
-      <c r="AE94" s="37"/>
-      <c r="AF94" s="37"/>
-      <c r="AG94" s="37"/>
+      <c r="Y94" s="40"/>
+      <c r="Z94" s="40"/>
+      <c r="AA94" s="40"/>
+      <c r="AB94" s="40"/>
+      <c r="AC94" s="40"/>
+      <c r="AD94" s="40"/>
+      <c r="AE94" s="40"/>
+      <c r="AF94" s="40"/>
+      <c r="AG94" s="40"/>
       <c r="AH94" s="18"/>
       <c r="AI94" s="18"/>
       <c r="AJ94" s="18"/>
@@ -10921,16 +10838,16 @@
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>2</v>
@@ -10951,17 +10868,17 @@
         <v>7</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L95" s="18"/>
       <c r="M95" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N95" s="14" t="s">
         <v>0</v>
       </c>
       <c r="O95" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P95" s="14" t="s">
         <v>2</v>
@@ -10982,16 +10899,16 @@
         <v>7</v>
       </c>
       <c r="V95" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X95" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y95" s="17" t="s">
         <v>0</v>
       </c>
       <c r="Z95" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA95" s="17" t="s">
         <v>2</v>
@@ -11012,7 +10929,7 @@
         <v>7</v>
       </c>
       <c r="AG95" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.2">
@@ -15103,44 +15020,44 @@
       </c>
     </row>
     <row r="140" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="36" t="s">
+      <c r="N140" s="39"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="39"/>
+      <c r="Q140" s="39"/>
+      <c r="R140" s="39"/>
+      <c r="S140" s="39"/>
+      <c r="T140" s="39"/>
+      <c r="U140" s="39"/>
+      <c r="V140" s="39"/>
+      <c r="W140" s="18"/>
+      <c r="X140" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N140" s="36"/>
-      <c r="O140" s="36"/>
-      <c r="P140" s="36"/>
-      <c r="Q140" s="36"/>
-      <c r="R140" s="36"/>
-      <c r="S140" s="36"/>
-      <c r="T140" s="36"/>
-      <c r="U140" s="36"/>
-      <c r="V140" s="36"/>
-      <c r="W140" s="18"/>
-      <c r="X140" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y140" s="37"/>
-      <c r="Z140" s="37"/>
-      <c r="AA140" s="37"/>
-      <c r="AB140" s="37"/>
-      <c r="AC140" s="37"/>
-      <c r="AD140" s="37"/>
-      <c r="AE140" s="37"/>
-      <c r="AF140" s="37"/>
-      <c r="AG140" s="37"/>
+      <c r="Y140" s="40"/>
+      <c r="Z140" s="40"/>
+      <c r="AA140" s="40"/>
+      <c r="AB140" s="40"/>
+      <c r="AC140" s="40"/>
+      <c r="AD140" s="40"/>
+      <c r="AE140" s="40"/>
+      <c r="AF140" s="40"/>
+      <c r="AG140" s="40"/>
       <c r="AH140" s="18"/>
       <c r="AI140" s="18"/>
       <c r="AJ140" s="18"/>
@@ -15154,16 +15071,16 @@
     </row>
     <row r="141" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C141" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E141" s="14" t="s">
         <v>2</v>
@@ -15184,17 +15101,17 @@
         <v>7</v>
       </c>
       <c r="K141" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L141" s="18"/>
       <c r="M141" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N141" s="14" t="s">
         <v>0</v>
       </c>
       <c r="O141" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P141" s="14" t="s">
         <v>2</v>
@@ -15215,16 +15132,16 @@
         <v>7</v>
       </c>
       <c r="V141" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X141" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y141" s="17" t="s">
         <v>0</v>
       </c>
       <c r="Z141" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA141" s="17" t="s">
         <v>2</v>
@@ -15245,7 +15162,7 @@
         <v>7</v>
       </c>
       <c r="AG141" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.2">
@@ -19336,44 +19253,44 @@
       </c>
     </row>
     <row r="186" spans="1:43" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="36" t="s">
+      <c r="B186" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186" s="39"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="39"/>
+      <c r="G186" s="39"/>
+      <c r="H186" s="39"/>
+      <c r="I186" s="39"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="39"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="36" t="s">
+      <c r="N186" s="39"/>
+      <c r="O186" s="39"/>
+      <c r="P186" s="39"/>
+      <c r="Q186" s="39"/>
+      <c r="R186" s="39"/>
+      <c r="S186" s="39"/>
+      <c r="T186" s="39"/>
+      <c r="U186" s="39"/>
+      <c r="V186" s="39"/>
+      <c r="W186" s="18"/>
+      <c r="X186" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="N186" s="36"/>
-      <c r="O186" s="36"/>
-      <c r="P186" s="36"/>
-      <c r="Q186" s="36"/>
-      <c r="R186" s="36"/>
-      <c r="S186" s="36"/>
-      <c r="T186" s="36"/>
-      <c r="U186" s="36"/>
-      <c r="V186" s="36"/>
-      <c r="W186" s="18"/>
-      <c r="X186" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y186" s="37"/>
-      <c r="Z186" s="37"/>
-      <c r="AA186" s="37"/>
-      <c r="AB186" s="37"/>
-      <c r="AC186" s="37"/>
-      <c r="AD186" s="37"/>
-      <c r="AE186" s="37"/>
-      <c r="AF186" s="37"/>
-      <c r="AG186" s="37"/>
+      <c r="Y186" s="40"/>
+      <c r="Z186" s="40"/>
+      <c r="AA186" s="40"/>
+      <c r="AB186" s="40"/>
+      <c r="AC186" s="40"/>
+      <c r="AD186" s="40"/>
+      <c r="AE186" s="40"/>
+      <c r="AF186" s="40"/>
+      <c r="AG186" s="40"/>
       <c r="AH186" s="18"/>
       <c r="AI186" s="18"/>
       <c r="AJ186" s="18"/>
@@ -19387,16 +19304,16 @@
     </row>
     <row r="187" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A187" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C187" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E187" s="14" t="s">
         <v>2</v>
@@ -19417,17 +19334,17 @@
         <v>7</v>
       </c>
       <c r="K187" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L187" s="18"/>
       <c r="M187" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N187" s="14" t="s">
         <v>0</v>
       </c>
       <c r="O187" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P187" s="14" t="s">
         <v>2</v>
@@ -19448,16 +19365,16 @@
         <v>7</v>
       </c>
       <c r="V187" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X187" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y187" s="17" t="s">
         <v>0</v>
       </c>
       <c r="Z187" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA187" s="17" t="s">
         <v>2</v>
@@ -19478,7 +19395,7 @@
         <v>7</v>
       </c>
       <c r="AG187" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="188" spans="1:43" x14ac:dyDescent="0.2">
@@ -23574,13 +23491,6 @@
     <sortCondition ref="A3:A108"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="M48:V48"/>
-    <mergeCell ref="X48:AG48"/>
     <mergeCell ref="B186:K186"/>
     <mergeCell ref="M186:V186"/>
     <mergeCell ref="X186:AG186"/>
@@ -23590,6 +23500,13 @@
     <mergeCell ref="B140:K140"/>
     <mergeCell ref="M140:V140"/>
     <mergeCell ref="X140:AG140"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M2:V2"/>
+    <mergeCell ref="X2:AG2"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="M48:V48"/>
+    <mergeCell ref="X48:AG48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23600,7 +23517,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23617,35 +23534,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>3</v>
@@ -23663,12 +23580,12 @@
         <v>7</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="8">
         <v>15.2293703846372</v>
@@ -23703,7 +23620,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8">
         <v>18.312033335501798</v>
@@ -23738,7 +23655,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8">
         <v>21.768078392956301</v>
@@ -23784,19 +23701,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>3</v>
@@ -23814,12 +23731,12 @@
         <v>7</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="8">
         <v>1.54690851735016</v>
@@ -23854,7 +23771,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="8">
         <v>1.5027680927628899</v>
@@ -23889,7 +23806,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="8">
         <v>1.67276018099548</v>
@@ -23935,19 +23852,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>3</v>
@@ -23965,12 +23882,12 @@
         <v>7</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="8">
         <v>2.0220977917981098</v>
@@ -24005,7 +23922,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="8">
         <v>1.98865653738505</v>
@@ -24040,7 +23957,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="8">
         <v>2.20780542986425</v>
@@ -24086,19 +24003,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>3</v>
@@ -24116,12 +24033,12 @@
         <v>7</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="8">
         <v>10.313360220573101</v>
@@ -24156,7 +24073,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="8">
         <v>8.6215324877736297</v>
@@ -24191,7 +24108,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="8">
         <v>12.2809159131735</v>
@@ -24237,19 +24154,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>3</v>
@@ -24267,12 +24184,12 @@
         <v>7</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="8">
         <v>0.61172763383308704</v>
@@ -24307,7 +24224,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="8">
         <v>0.73009900639702896</v>
@@ -24342,7 +24259,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" s="10">
         <v>0.56803168375465696</v>
@@ -24388,7 +24305,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24405,35 +24322,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>3</v>
@@ -24451,12 +24368,12 @@
         <v>7</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="8">
         <v>15.9790652456537</v>
@@ -24491,7 +24408,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="8">
         <v>18.0991958511508</v>
@@ -24526,7 +24443,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B5" s="10">
         <v>21.036184747223501</v>
@@ -24572,19 +24489,19 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>3</v>
@@ -24602,12 +24519,12 @@
         <v>7</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="8">
         <v>1.3122508833922299</v>
@@ -24642,7 +24559,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="8">
         <v>1.4753103748910199</v>
@@ -24677,7 +24594,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B10" s="10">
         <v>1.7722389380531001</v>
@@ -24723,19 +24640,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>3</v>
@@ -24753,12 +24670,12 @@
         <v>7</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="8">
         <v>1.84142049469965</v>
@@ -24793,7 +24710,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="8">
         <v>1.96312816041848</v>
@@ -24828,7 +24745,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B15" s="10">
         <v>2.27198230088496</v>
@@ -24874,19 +24791,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>3</v>
@@ -24904,12 +24821,12 @@
         <v>7</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="8">
         <v>4.8253495017493</v>
@@ -24944,7 +24861,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="8">
         <v>8.0991589201504794</v>
@@ -24979,7 +24896,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B20" s="10">
         <v>14.412600354488101</v>
@@ -25025,19 +24942,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>3</v>
@@ -25055,12 +24972,12 @@
         <v>7</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="8">
         <v>0.82234158570343996</v>
@@ -25095,7 +25012,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="8">
         <v>0.75395980963241604</v>
@@ -25129,8 +25046,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
-        <v>224</v>
+      <c r="A25" s="33" t="s">
+        <v>208</v>
       </c>
       <c r="B25" s="10">
         <v>0.48030288628601803</v>
@@ -25176,7 +25093,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25193,33 +25110,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -25227,19 +25144,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -25247,19 +25164,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -25267,19 +25184,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -25287,19 +25204,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -25307,19 +25224,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -25327,19 +25244,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -25347,19 +25264,19 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -25367,19 +25284,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -25387,19 +25304,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -25407,19 +25324,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -25427,19 +25344,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -25447,19 +25364,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -25467,19 +25384,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -25487,19 +25404,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -25507,19 +25424,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -25527,16 +25444,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -25544,16 +25461,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -25561,16 +25478,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -25578,16 +25495,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -25595,16 +25512,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -25612,16 +25529,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -25629,16 +25546,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -25646,16 +25563,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -25663,16 +25580,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -25680,16 +25597,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -25697,16 +25614,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -25714,19 +25631,19 @@
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -25734,19 +25651,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -25754,19 +25671,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -25774,19 +25691,19 @@
         <v>2</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -25794,19 +25711,19 @@
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -25814,19 +25731,19 @@
         <v>2</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -25834,19 +25751,19 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -25854,19 +25771,19 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -25874,19 +25791,19 @@
         <v>2</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -25894,19 +25811,19 @@
         <v>2</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -25914,19 +25831,19 @@
         <v>2</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -25934,19 +25851,19 @@
         <v>2</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -25954,19 +25871,19 @@
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -25974,19 +25891,19 @@
         <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -25994,19 +25911,19 @@
         <v>2</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.2">
@@ -26070,7 +25987,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26087,19 +26004,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -26112,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -26133,12 +26050,12 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8">
         <v>3460.3150000000001</v>
@@ -26173,7 +26090,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="10">
         <v>9038.5149999999994</v>
@@ -26218,8 +26135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C038515F-F4FC-444C-9E11-866A4617CBC1}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26235,32 +26152,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -26281,12 +26198,12 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="8">
         <v>145.5</v>
@@ -26321,7 +26238,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="10">
         <v>211.75</v>
@@ -26367,7 +26284,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26383,23 +26300,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>105</v>
@@ -26408,7 +26325,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -26903,7 +26820,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26920,23 +26837,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>105</v>
@@ -26945,7 +26862,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -28490,7 +28407,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28506,19 +28423,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -28531,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -28638,7 +28555,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28654,23 +28571,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>105</v>
@@ -28679,7 +28596,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -28705,7 +28622,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="6">
         <v>3575.1489999999999</v>
@@ -28740,7 +28657,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="6">
         <v>3218.2350000000001</v>
@@ -28775,7 +28692,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="9">
         <v>4186.6530000000002</v>
@@ -28820,8 +28737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FB37E-7093-FE43-A8C1-EC342DC81797}">
   <dimension ref="A1:K945"/>
   <sheetViews>
-    <sheetView topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28834,32 +28751,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="118" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>2</v>
@@ -28880,7 +28797,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -30390,16 +30307,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>211</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>2</v>
@@ -30420,7 +30337,7 @@
         <v>7</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -31930,16 +31847,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E92" s="14" t="s">
         <v>2</v>
@@ -31960,7 +31877,7 @@
         <v>7</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -33470,16 +33387,16 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>2</v>
@@ -33500,7 +33417,7 @@
         <v>7</v>
       </c>
       <c r="K137" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
@@ -35010,7 +34927,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>79</v>
@@ -35019,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E182" s="14" t="s">
         <v>2</v>
@@ -35040,7 +34957,7 @@
         <v>7</v>
       </c>
       <c r="K182" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -36550,7 +36467,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B227" s="14" t="s">
         <v>101</v>
@@ -36559,7 +36476,7 @@
         <v>0</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E227" s="14" t="s">
         <v>2</v>
@@ -36580,7 +36497,7 @@
         <v>7</v>
       </c>
       <c r="K227" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
@@ -38090,7 +38007,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B272" s="14" t="s">
         <v>102</v>
@@ -38099,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E272" s="14" t="s">
         <v>2</v>
@@ -38120,7 +38037,7 @@
         <v>7</v>
       </c>
       <c r="K272" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
@@ -39630,7 +39547,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B317" s="14" t="s">
         <v>103</v>
@@ -39639,7 +39556,7 @@
         <v>0</v>
       </c>
       <c r="D317" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E317" s="14" t="s">
         <v>2</v>
@@ -39660,7 +39577,7 @@
         <v>7</v>
       </c>
       <c r="K317" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
@@ -41170,16 +41087,16 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B362" s="14" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C362" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D362" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E362" s="14" t="s">
         <v>2</v>
@@ -41200,7 +41117,7 @@
         <v>7</v>
       </c>
       <c r="K362" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
@@ -42710,16 +42627,16 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B407" s="14" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C407" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E407" s="14" t="s">
         <v>2</v>
@@ -42740,7 +42657,7 @@
         <v>7</v>
       </c>
       <c r="K407" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
@@ -44250,16 +44167,16 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B452" s="14" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C452" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D452" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E452" s="14" t="s">
         <v>2</v>
@@ -44280,7 +44197,7 @@
         <v>7</v>
       </c>
       <c r="K452" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
@@ -45790,16 +45707,16 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B497" s="14" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C497" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D497" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E497" s="14" t="s">
         <v>2</v>
@@ -45820,7 +45737,7 @@
         <v>7</v>
       </c>
       <c r="K497" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.2">
@@ -47330,16 +47247,16 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B542" s="14" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C542" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D542" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E542" s="14" t="s">
         <v>2</v>
@@ -47360,7 +47277,7 @@
         <v>7</v>
       </c>
       <c r="K542" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.2">
@@ -48870,16 +48787,16 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C587" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D587" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E587" s="14" t="s">
         <v>2</v>
@@ -48900,7 +48817,7 @@
         <v>7</v>
       </c>
       <c r="K587" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.2">
@@ -50410,16 +50327,16 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B632" s="14" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C632" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D632" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E632" s="14" t="s">
         <v>2</v>
@@ -50440,7 +50357,7 @@
         <v>7</v>
       </c>
       <c r="K632" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.2">
@@ -51917,31 +51834,31 @@
       <c r="A675" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B675" s="38">
+      <c r="B675" s="31">
         <v>869.86320654347799</v>
       </c>
-      <c r="C675" s="38">
+      <c r="C675" s="31">
         <v>113.027892285948</v>
       </c>
-      <c r="D675" s="39">
+      <c r="D675" s="32">
         <v>4</v>
       </c>
-      <c r="E675" s="38">
+      <c r="E675" s="31">
         <v>261.391161907482</v>
       </c>
-      <c r="F675" s="38">
+      <c r="F675" s="31">
         <v>747.76757382608696</v>
       </c>
-      <c r="G675" s="38">
+      <c r="G675" s="31">
         <v>1019.27234826087</v>
       </c>
-      <c r="H675" s="38">
+      <c r="H675" s="31">
         <v>814.84215171739095</v>
       </c>
-      <c r="I675" s="38">
+      <c r="I675" s="31">
         <v>856.20645204347795</v>
       </c>
-      <c r="J675" s="38">
+      <c r="J675" s="31">
         <v>911.22750686956499</v>
       </c>
       <c r="K675" s="26" t="s">
@@ -51950,16 +51867,16 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B677" s="14" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C677" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D677" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E677" s="14" t="s">
         <v>2</v>
@@ -51980,7 +51897,7 @@
         <v>7</v>
       </c>
       <c r="K677" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.2">
@@ -53490,16 +53407,16 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B722" s="14" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C722" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D722" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E722" s="14" t="s">
         <v>2</v>
@@ -53520,7 +53437,7 @@
         <v>7</v>
       </c>
       <c r="K722" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.2">
@@ -55030,16 +54947,16 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A767" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B767" s="14" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C767" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D767" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E767" s="14" t="s">
         <v>2</v>
@@ -55060,7 +54977,7 @@
         <v>7</v>
       </c>
       <c r="K767" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.2">
@@ -56570,16 +56487,16 @@
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A812" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B812" s="14" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C812" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D812" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E812" s="14" t="s">
         <v>2</v>
@@ -56600,7 +56517,7 @@
         <v>7</v>
       </c>
       <c r="K812" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.2">
@@ -58110,16 +58027,16 @@
     </row>
     <row r="857" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A857" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B857" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C857" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D857" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E857" s="14" t="s">
         <v>2</v>
@@ -58140,7 +58057,7 @@
         <v>7</v>
       </c>
       <c r="K857" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="858" spans="1:11" x14ac:dyDescent="0.2">
@@ -59650,16 +59567,16 @@
     </row>
     <row r="902" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A902" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B902" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C902" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D902" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E902" s="24" t="s">
         <v>2</v>
@@ -59680,7 +59597,7 @@
         <v>7</v>
       </c>
       <c r="K902" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="903" spans="1:11" x14ac:dyDescent="0.2">
@@ -61200,8 +61117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F96413-01F2-B74D-843B-DBC3044D543B}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61218,32 +61135,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="152" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>2</v>
@@ -61264,13 +61181,13 @@
         <v>7</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8">
         <v>14.421052631578901</v>
@@ -61306,7 +61223,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8">
         <v>13.8106796116505</v>
@@ -61341,7 +61258,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10">
         <v>11.6666666666667</v>
@@ -61389,16 +61306,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>2</v>
@@ -61419,13 +61336,13 @@
         <v>7</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="8">
         <v>49.7368421052632</v>
@@ -61461,7 +61378,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="8">
         <v>45.1553398058252</v>
@@ -61496,7 +61413,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="10">
         <v>41.7083333333333</v>
@@ -61544,16 +61461,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>2</v>
@@ -61574,13 +61491,13 @@
         <v>7</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="8">
         <v>188.36842105263199</v>
@@ -61616,7 +61533,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="8">
         <v>163.73786407767</v>
@@ -61651,7 +61568,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="10">
         <v>143.291666666667</v>
@@ -61699,16 +61616,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>2</v>
@@ -61729,13 +61646,13 @@
         <v>7</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="8">
         <v>0.91984210526315802</v>
@@ -61771,7 +61688,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="8">
         <v>0.87333980582524295</v>
@@ -61806,7 +61723,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="10">
         <v>0.94825000000000004</v>
@@ -61852,7 +61769,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>79</v>
@@ -61861,7 +61778,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>2</v>
@@ -61882,12 +61799,12 @@
         <v>7</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="8">
         <v>0.47631578947368403</v>
@@ -61922,7 +61839,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="8">
         <v>0.44686407766990299</v>
@@ -61957,7 +61874,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="10">
         <v>0.36679166666666702</v>
@@ -62003,7 +61920,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>101</v>
@@ -62012,7 +61929,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>2</v>
@@ -62033,12 +61950,12 @@
         <v>7</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="8">
         <v>0.31984210526315798</v>
@@ -62073,7 +61990,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="8">
         <v>0.31275728155339799</v>
@@ -62108,7 +62025,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="10">
         <v>0.30637500000000001</v>
@@ -62154,7 +62071,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B32" s="30" t="s">
         <v>102</v>
@@ -62163,7 +62080,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>2</v>
@@ -62184,12 +62101,12 @@
         <v>7</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="8">
         <v>0.34552631578947401</v>
@@ -62224,7 +62141,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="8">
         <v>0.33667961165048499</v>
@@ -62259,7 +62176,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="10">
         <v>0.32695833333333302</v>
@@ -62305,7 +62222,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>103</v>
@@ -62314,7 +62231,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>2</v>
@@ -62335,12 +62252,12 @@
         <v>7</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="8">
         <v>0.33468421052631597</v>
@@ -62375,7 +62292,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="8">
         <v>0.35059223300970899</v>
@@ -62410,7 +62327,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="10">
         <v>0.36670833333333303</v>
@@ -62456,16 +62373,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>2</v>
@@ -62486,12 +62403,12 @@
         <v>7</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="8">
         <v>2309.54916767963</v>
@@ -62526,7 +62443,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="8">
         <v>1510.3125183351599</v>
@@ -62561,7 +62478,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="10">
         <v>1077.4615478478299</v>
@@ -62607,16 +62524,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>2</v>
@@ -62637,12 +62554,12 @@
         <v>7</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="8">
         <v>33.2554004576659</v>
@@ -62677,7 +62594,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="8">
         <v>26.460495567750101</v>
@@ -62712,7 +62629,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="10">
         <v>24.4728079710145</v>
@@ -62758,16 +62675,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>2</v>
@@ -62788,12 +62705,12 @@
         <v>7</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="8">
         <v>29.194887871853499</v>
@@ -62828,7 +62745,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="8">
         <v>22.051574504010102</v>
@@ -62863,7 +62780,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="10">
         <v>22.010112318840601</v>
@@ -62909,16 +62826,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>2</v>
@@ -62939,12 +62856,12 @@
         <v>7</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="8">
         <v>0.28067988100686497</v>
@@ -62979,7 +62896,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" s="8">
         <v>0.232635265512875</v>
@@ -63014,7 +62931,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="10">
         <v>0.222842206521739</v>
@@ -63060,16 +62977,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>2</v>
@@ -63090,12 +63007,12 @@
         <v>7</v>
       </c>
       <c r="K62" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63" s="8">
         <v>0.20306515331807801</v>
@@ -63130,7 +63047,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="8">
         <v>0.171854427184466</v>
@@ -63165,7 +63082,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="10">
         <v>0.165920898550725</v>
@@ -63211,16 +63128,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>2</v>
@@ -63241,12 +63158,12 @@
         <v>7</v>
       </c>
       <c r="K67" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" s="8">
         <v>2.34869150114416</v>
@@ -63281,7 +63198,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="8">
         <v>1.74912280540312</v>
@@ -63316,7 +63233,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="10">
         <v>1.4316443115941999</v>
@@ -63362,16 +63279,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>2</v>
@@ -63392,12 +63309,12 @@
         <v>7</v>
       </c>
       <c r="K72" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="8">
         <v>1814.2815616887899</v>
@@ -63432,7 +63349,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" s="8">
         <v>1313.1323748391701</v>
@@ -63467,7 +63384,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B75" s="10">
         <v>1010.53207205797</v>
@@ -63513,16 +63430,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>2</v>
@@ -63543,12 +63460,12 @@
         <v>7</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="8">
         <v>286.43781072171902</v>
@@ -63583,7 +63500,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" s="8">
         <v>169.381272831611</v>
@@ -63618,7 +63535,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="10">
         <v>121.259946109011</v>
@@ -63664,16 +63581,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>2</v>
@@ -63694,12 +63611,12 @@
         <v>7</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B83" s="8">
         <v>630.52768326156604</v>
@@ -63734,7 +63651,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="8">
         <v>382.36557657276001</v>
@@ -63769,7 +63686,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="10">
         <v>341.754634394927</v>
@@ -63815,16 +63732,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>2</v>
@@ -63845,12 +63762,12 @@
         <v>7</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="8">
         <v>209.030575483832</v>
@@ -63885,7 +63802,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" s="8">
         <v>140.57320160742901</v>
@@ -63920,7 +63837,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="10">
         <v>96.082145172967898</v>
@@ -63966,16 +63883,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E92" s="14" t="s">
         <v>2</v>
@@ -63996,12 +63913,12 @@
         <v>7</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="8">
         <v>1984.60415274241</v>
@@ -64036,7 +63953,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B94" s="8">
         <v>1104.3106522970099</v>
@@ -64071,7 +63988,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" s="10">
         <v>751.74877701959304</v>
@@ -64117,16 +64034,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E97" s="14" t="s">
         <v>2</v>
@@ -64147,12 +64064,12 @@
         <v>7</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" s="8">
         <v>289.48771115301003</v>
@@ -64187,7 +64104,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" s="8">
         <v>125.290136592273</v>
@@ -64222,7 +64139,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="10">
         <v>75.096424231966296</v>
@@ -64268,16 +64185,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>2</v>
@@ -64298,12 +64215,12 @@
         <v>7</v>
       </c>
       <c r="K102" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="8">
         <v>45.394052631578901</v>
@@ -64338,7 +64255,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="8">
         <v>46.100378640776697</v>
@@ -64373,7 +64290,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="10">
         <v>46.865791666666702</v>
@@ -64422,7 +64339,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64438,26 +64355,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
@@ -64484,12 +64401,12 @@
         <v>7</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="8">
         <v>1.4273858921161799</v>
@@ -64524,7 +64441,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8">
         <v>1.3930530164533801</v>
@@ -64559,7 +64476,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="10">
         <v>1.3459119496855301</v>
@@ -64604,10 +64521,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
@@ -64634,12 +64551,12 @@
         <v>7</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="8">
         <v>57.097823536819199</v>
@@ -64674,7 +64591,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="8">
         <v>51.4476476637305</v>
@@ -64709,7 +64626,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="10">
         <v>47.774326275406203</v>
@@ -64754,10 +64671,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>0</v>
@@ -64784,12 +64701,12 @@
         <v>7</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="8">
         <v>2.2598073223276698</v>
@@ -64824,7 +64741,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="8">
         <v>2.1214596823839602</v>
@@ -64859,7 +64776,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="10">
         <v>1.9818960003644901</v>
@@ -64904,10 +64821,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>0</v>
@@ -64934,12 +64851,12 @@
         <v>7</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="8">
         <v>0.54324546803844698</v>
@@ -64974,7 +64891,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="8">
         <v>0.49234657158682998</v>
@@ -65009,7 +64926,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="10">
         <v>0.49457161068111699</v>
@@ -65054,10 +64971,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>0</v>
@@ -65084,12 +65001,12 @@
         <v>7</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="8">
         <v>8.0236730519794204</v>
@@ -65124,7 +65041,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="8">
         <v>7.9961161376934999</v>
@@ -65159,7 +65076,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" s="10">
         <v>7.12876684295661</v>
@@ -65204,10 +65121,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>0</v>
@@ -65234,12 +65151,12 @@
         <v>7</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="8">
         <v>5.0093414496383204</v>
@@ -65274,7 +65191,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="8">
         <v>3.9570756487737202</v>
@@ -65309,7 +65226,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="10">
         <v>2.8899341205406599</v>
@@ -65355,7 +65272,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65378,71 +65295,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
+      <c r="A1" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="35">
+      <c r="B2" s="38">
         <v>2021</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="35">
+      <c r="M2" s="38">
         <v>2022</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>2</v>
@@ -65463,16 +65380,16 @@
         <v>7</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>2</v>
@@ -65493,7 +65410,7 @@
         <v>7</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -65528,7 +65445,7 @@
         <v>36</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M4" s="8">
         <v>34.5</v>
@@ -65558,7 +65475,7 @@
         <v>37</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -65623,7 +65540,7 @@
         <v>35.5</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -65658,7 +65575,7 @@
         <v>36.75</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="8">
         <v>29.5</v>
@@ -65688,7 +65605,7 @@
         <v>30</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -65723,7 +65640,7 @@
         <v>39</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M7" s="8">
         <v>30.363636363636399</v>
@@ -65753,7 +65670,7 @@
         <v>31</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -65818,7 +65735,7 @@
         <v>37</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -66048,7 +65965,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M12" s="8">
         <v>43.5</v>
@@ -66403,7 +66320,7 @@
         <v>32</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -66438,7 +66355,7 @@
         <v>36</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M18" s="8">
         <v>37.5</v>
@@ -66468,7 +66385,7 @@
         <v>38.75</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -66503,7 +66420,7 @@
         <v>34</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M19" s="8">
         <v>29.25</v>
@@ -66533,7 +66450,7 @@
         <v>30</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -66568,7 +66485,7 @@
         <v>34.25</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M20" s="8">
         <v>29.5</v>
@@ -66598,7 +66515,7 @@
         <v>30</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -66763,7 +66680,7 @@
         <v>35.25</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M23" s="8">
         <v>29.5</v>
@@ -66793,7 +66710,7 @@
         <v>30</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -66828,7 +66745,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M24" s="8">
         <v>29</v>
@@ -66858,7 +66775,7 @@
         <v>29.25</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -66893,7 +66810,7 @@
         <v>34</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M25" s="8">
         <v>28.75</v>
@@ -66923,7 +66840,7 @@
         <v>29.25</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -67118,7 +67035,7 @@
         <v>43</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -67153,7 +67070,7 @@
         <v>36</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M29" s="8">
         <v>35.6666666666667</v>
@@ -67183,7 +67100,7 @@
         <v>41</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -67313,7 +67230,7 @@
         <v>32</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -67348,7 +67265,7 @@
         <v>34.25</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M32" s="8">
         <v>29.75</v>
@@ -67378,7 +67295,7 @@
         <v>30</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
@@ -67478,7 +67395,7 @@
         <v>41</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M34" s="8">
         <v>43.75</v>
@@ -67573,7 +67490,7 @@
         <v>35.5</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
@@ -67608,7 +67525,7 @@
         <v>35</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M36" s="8">
         <v>29.75</v>
@@ -67638,7 +67555,7 @@
         <v>30</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
@@ -67673,7 +67590,7 @@
         <v>36.75</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M37" s="8">
         <v>33.75</v>
@@ -67703,7 +67620,7 @@
         <v>35</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
@@ -67738,7 +67655,7 @@
         <v>36.75</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M38" s="8">
         <v>37.75</v>
@@ -67768,7 +67685,7 @@
         <v>38.75</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
@@ -67803,7 +67720,7 @@
         <v>39</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M39" s="8">
         <v>36.5</v>
@@ -67833,7 +67750,7 @@
         <v>37</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
@@ -67868,7 +67785,7 @@
         <v>36</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M40" s="8">
         <v>32</v>
@@ -67898,7 +67815,7 @@
         <v>32</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
@@ -67933,7 +67850,7 @@
         <v>35</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M41" s="8">
         <v>29</v>
@@ -67963,7 +67880,7 @@
         <v>29.25</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
@@ -68063,7 +67980,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M43" s="8">
         <v>30.5</v>
@@ -68093,7 +68010,7 @@
         <v>30.5</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
@@ -68258,7 +68175,7 @@
         <v>36</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M46" s="8">
         <v>29</v>
@@ -68288,7 +68205,7 @@
         <v>30</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
